--- a/fourth_pass/welfare_results/isoelastic/analysis_results/net_series_isoelastic.xlsx
+++ b/fourth_pass/welfare_results/isoelastic/analysis_results/net_series_isoelastic.xlsx
@@ -380,16 +380,16 @@
         <v>1991</v>
       </c>
       <c r="B2" t="n">
-        <v>-421676046715321024</v>
+        <v>-414685755453185152</v>
       </c>
       <c r="C2" t="n">
-        <v>-174894225311598</v>
+        <v>-172048015514311</v>
       </c>
       <c r="D2" t="n">
-        <v>103353856441857830027264</v>
+        <v>101689501379444527333376</v>
       </c>
       <c r="E2" t="n">
-        <v>10000621221271789568</v>
+        <v>9834185715030458368</v>
       </c>
     </row>
     <row r="3">
@@ -397,16 +397,16 @@
         <v>1992</v>
       </c>
       <c r="B3" t="n">
-        <v>-421675963944945344</v>
+        <v>-414103148410964800</v>
       </c>
       <c r="C3" t="n">
-        <v>-174889375793002</v>
+        <v>-171805981845942</v>
       </c>
       <c r="D3" t="n">
-        <v>103355969745017720799232</v>
+        <v>101552918427403292770304</v>
       </c>
       <c r="E3" t="n">
-        <v>10000621193081489408</v>
+        <v>9820316061320046592</v>
       </c>
     </row>
     <row r="4">
@@ -414,16 +414,16 @@
         <v>1993</v>
       </c>
       <c r="B4" t="n">
-        <v>-421675921141688448</v>
+        <v>-413520581335863296</v>
       </c>
       <c r="C4" t="n">
-        <v>-174884523206335</v>
+        <v>-171563945109500</v>
       </c>
       <c r="D4" t="n">
-        <v>103358129141442932637696</v>
+        <v>101416381568627412828160</v>
       </c>
       <c r="E4" t="n">
-        <v>10000621176549126144</v>
+        <v>9806446419267573760</v>
       </c>
     </row>
     <row r="5">
@@ -431,16 +431,16 @@
         <v>1994</v>
       </c>
       <c r="B5" t="n">
-        <v>-421675909934443648</v>
+        <v>-412938045856773760</v>
       </c>
       <c r="C5" t="n">
-        <v>-174879226117129</v>
+        <v>-171321463870520</v>
       </c>
       <c r="D5" t="n">
-        <v>103360295704167693942784</v>
+        <v>101279851876151065575424</v>
       </c>
       <c r="E5" t="n">
-        <v>10000621170180102144</v>
+        <v>9792576787378438144</v>
       </c>
     </row>
     <row r="6">
@@ -448,16 +448,16 @@
         <v>1995</v>
       </c>
       <c r="B6" t="n">
-        <v>-421675929407062848</v>
+        <v>-412355541057548224</v>
       </c>
       <c r="C6" t="n">
-        <v>-174873345104561</v>
+        <v>-171078398708179</v>
       </c>
       <c r="D6" t="n">
-        <v>103362491849377438498816</v>
+        <v>101143351766159684796416</v>
       </c>
       <c r="E6" t="n">
-        <v>10000621175044995072</v>
+        <v>9778707166723219456</v>
       </c>
     </row>
     <row r="7">
@@ -465,16 +465,16 @@
         <v>1996</v>
       </c>
       <c r="B7" t="n">
-        <v>-421675953194810560</v>
+        <v>-411773040573451264</v>
       </c>
       <c r="C7" t="n">
-        <v>-174867108514306</v>
+        <v>-170834977968150</v>
       </c>
       <c r="D7" t="n">
-        <v>103364722543417274400768</v>
+        <v>101006886204998412140544</v>
       </c>
       <c r="E7" t="n">
-        <v>10000621180234504192</v>
+        <v>9764837546392616960</v>
       </c>
     </row>
     <row r="8">
@@ -482,16 +482,16 @@
         <v>1997</v>
       </c>
       <c r="B8" t="n">
-        <v>-421675963898815488</v>
+        <v>-411190527005611648</v>
       </c>
       <c r="C8" t="n">
-        <v>-174860907227549</v>
+        <v>-170591592531619</v>
       </c>
       <c r="D8" t="n">
-        <v>103366739631927306747904</v>
+        <v>100870207038307352707072</v>
       </c>
       <c r="E8" t="n">
-        <v>10000621182331512832</v>
+        <v>9750967922969516032</v>
       </c>
     </row>
     <row r="9">
@@ -499,16 +499,16 @@
         <v>1998</v>
       </c>
       <c r="B9" t="n">
-        <v>-421675971449496320</v>
+        <v>-410608010284447808</v>
       </c>
       <c r="C9" t="n">
-        <v>-174856523226204</v>
+        <v>-170350024380500</v>
       </c>
       <c r="D9" t="n">
-        <v>103368666149631802998784</v>
+        <v>100733437300810723622912</v>
       </c>
       <c r="E9" t="n">
-        <v>10000621192491395072</v>
+        <v>9737098307609286656</v>
       </c>
     </row>
     <row r="10">
@@ -516,16 +516,16 @@
         <v>1999</v>
       </c>
       <c r="B10" t="n">
-        <v>-421676024233850944</v>
+        <v>-410025538796957696</v>
       </c>
       <c r="C10" t="n">
-        <v>-174850875537929</v>
+        <v>-170107192542451</v>
       </c>
       <c r="D10" t="n">
-        <v>103370864872099386753024</v>
+        <v>100596939768077198819328</v>
       </c>
       <c r="E10" t="n">
-        <v>10000621207539107840</v>
+        <v>9723228697136887808</v>
       </c>
     </row>
     <row r="11">
@@ -533,16 +533,16 @@
         <v>2000</v>
       </c>
       <c r="B11" t="n">
-        <v>-421676155603048384</v>
+        <v>-409443145894310528</v>
       </c>
       <c r="C11" t="n">
-        <v>-174843070246967</v>
+        <v>-169862203101715</v>
       </c>
       <c r="D11" t="n">
-        <v>103372928592139335499776</v>
+        <v>100460307232916055785472</v>
       </c>
       <c r="E11" t="n">
-        <v>10000621249801353216</v>
+        <v>9709359113879023616</v>
       </c>
     </row>
     <row r="12">
@@ -550,16 +550,16 @@
         <v>2001</v>
       </c>
       <c r="B12" t="n">
-        <v>-421676231124277248</v>
+        <v>-408860697143694656</v>
       </c>
       <c r="C12" t="n">
-        <v>-174836477631282</v>
+        <v>-169618426336256</v>
       </c>
       <c r="D12" t="n">
-        <v>103375001850701728972800</v>
+        <v>100323684236277323923456</v>
       </c>
       <c r="E12" t="n">
-        <v>10000621273354946560</v>
+        <v>9695489511912505344</v>
       </c>
     </row>
     <row r="13">
@@ -567,16 +567,16 @@
         <v>2002</v>
       </c>
       <c r="B13" t="n">
-        <v>-421676319703270464</v>
+        <v>-408278261450843264</v>
       </c>
       <c r="C13" t="n">
-        <v>-174830119210855</v>
+        <v>-169374883766055</v>
       </c>
       <c r="D13" t="n">
-        <v>103377152529988604395520</v>
+        <v>100187138660363090788352</v>
       </c>
       <c r="E13" t="n">
-        <v>10000621297624096768</v>
+        <v>9681619910661543936</v>
       </c>
     </row>
     <row r="14">
@@ -584,16 +584,16 @@
         <v>2003</v>
       </c>
       <c r="B14" t="n">
-        <v>-421676391252202688</v>
+        <v>-407695808727930816</v>
       </c>
       <c r="C14" t="n">
-        <v>-174822833297260</v>
+        <v>-169130413702686</v>
       </c>
       <c r="D14" t="n">
-        <v>103379581989054180229120</v>
+        <v>100050871864227541286912</v>
       </c>
       <c r="E14" t="n">
-        <v>10000621319658108928</v>
+        <v>9667750307175444480</v>
       </c>
     </row>
     <row r="15">
@@ -601,16 +601,16 @@
         <v>2004</v>
       </c>
       <c r="B15" t="n">
-        <v>-421676446673123968</v>
+        <v>-407113339877007488</v>
       </c>
       <c r="C15" t="n">
-        <v>-174812506522005</v>
+        <v>-168882902777658</v>
       </c>
       <c r="D15" t="n">
-        <v>103381840510221536985088</v>
+        <v>99914434130193806262272</v>
       </c>
       <c r="E15" t="n">
-        <v>10000621336310636544</v>
+        <v>9653880698307862528</v>
       </c>
     </row>
     <row r="16">
@@ -618,16 +618,16 @@
         <v>2005</v>
       </c>
       <c r="B16" t="n">
-        <v>-421676566273766848</v>
+        <v>-406530935205805696</v>
       </c>
       <c r="C16" t="n">
-        <v>-174801911073569</v>
+        <v>-168635123179448</v>
       </c>
       <c r="D16" t="n">
-        <v>103384172418258968772608</v>
+        <v>99778069783030146269184</v>
       </c>
       <c r="E16" t="n">
-        <v>10000621374375358464</v>
+        <v>9640011110852474880</v>
       </c>
     </row>
     <row r="17">
@@ -635,16 +635,16 @@
         <v>2006</v>
       </c>
       <c r="B17" t="n">
-        <v>-421676645789038208</v>
+        <v>-405948490449232448</v>
       </c>
       <c r="C17" t="n">
-        <v>-174789106143575</v>
+        <v>-168385134099680</v>
       </c>
       <c r="D17" t="n">
-        <v>103386435564633958907904</v>
+        <v>99641636674204011069440</v>
       </c>
       <c r="E17" t="n">
-        <v>10000621400806713344</v>
+        <v>9626141511763718144</v>
       </c>
     </row>
     <row r="18">
@@ -652,16 +652,16 @@
         <v>2007</v>
       </c>
       <c r="B18" t="n">
-        <v>-421676645749619712</v>
+        <v>-405365966137969280</v>
       </c>
       <c r="C18" t="n">
-        <v>-174776826780544</v>
+        <v>-168135670586875</v>
       </c>
       <c r="D18" t="n">
-        <v>103388786488035449503744</v>
+        <v>99505291342404393107456</v>
       </c>
       <c r="E18" t="n">
-        <v>10000621399033640960</v>
+        <v>9612271884470534144</v>
       </c>
     </row>
     <row r="19">
@@ -669,16 +669,16 @@
         <v>2008</v>
       </c>
       <c r="B19" t="n">
-        <v>-421676771049615680</v>
+        <v>-404783567166120512</v>
       </c>
       <c r="C19" t="n">
-        <v>-174767571772904</v>
+        <v>-167889231429461</v>
       </c>
       <c r="D19" t="n">
-        <v>103391201405185218838528</v>
+        <v>99369010004353037107200</v>
       </c>
       <c r="E19" t="n">
-        <v>10000621437320951808</v>
+        <v>9598402297237733376</v>
       </c>
     </row>
     <row r="20">
@@ -686,16 +686,16 @@
         <v>2009</v>
       </c>
       <c r="B20" t="n">
-        <v>-421676833716063168</v>
+        <v>-404201105560723392</v>
       </c>
       <c r="C20" t="n">
-        <v>-174762626487915</v>
+        <v>-167647101994698</v>
       </c>
       <c r="D20" t="n">
-        <v>103393524542472837922816</v>
+        <v>99232636886439581188096</v>
       </c>
       <c r="E20" t="n">
-        <v>10000621453727520768</v>
+        <v>9584532688124192768</v>
       </c>
     </row>
     <row r="21">
@@ -703,16 +703,16 @@
         <v>2010</v>
       </c>
       <c r="B21" t="n">
-        <v>-421677019408173312</v>
+        <v>-403618766980988800</v>
       </c>
       <c r="C21" t="n">
-        <v>-174752189038760</v>
+        <v>-167399480395769</v>
       </c>
       <c r="D21" t="n">
-        <v>103395932740319027658752</v>
+        <v>99096348829084645588992</v>
       </c>
       <c r="E21" t="n">
-        <v>10000621513267912704</v>
+        <v>9570663122144473088</v>
       </c>
     </row>
     <row r="22">
@@ -720,16 +720,16 @@
         <v>2011</v>
       </c>
       <c r="B22" t="n">
-        <v>-421677056317968256</v>
+        <v>-403036279618939072</v>
       </c>
       <c r="C22" t="n">
-        <v>-174741331187943</v>
+        <v>-167151438395178</v>
       </c>
       <c r="D22" t="n">
-        <v>103398156025430018097152</v>
+        <v>98959875858994510692352</v>
       </c>
       <c r="E22" t="n">
-        <v>10000621528921430016</v>
+        <v>9556793512277878784</v>
       </c>
     </row>
     <row r="23">
@@ -737,16 +737,16 @@
         <v>2012</v>
       </c>
       <c r="B23" t="n">
-        <v>-421677263965949184</v>
+        <v>-402453962995075456</v>
       </c>
       <c r="C23" t="n">
-        <v>-174732184585565</v>
+        <v>-166905107643026</v>
       </c>
       <c r="D23" t="n">
-        <v>103400934827426307899392</v>
+        <v>98823958405789708713984</v>
       </c>
       <c r="E23" t="n">
-        <v>10000621593488027648</v>
+        <v>9542923951324366848</v>
       </c>
     </row>
     <row r="24">
@@ -754,16 +754,16 @@
         <v>2013</v>
       </c>
       <c r="B24" t="n">
-        <v>-421677432329245120</v>
+        <v>-401871607086526720</v>
       </c>
       <c r="C24" t="n">
-        <v>-174723625160557</v>
+        <v>-166659364068245</v>
       </c>
       <c r="D24" t="n">
-        <v>103403610158740686241792</v>
+        <v>98687937481902978498560</v>
       </c>
       <c r="E24" t="n">
-        <v>10000621645973329920</v>
+        <v>9529054378289557504</v>
       </c>
     </row>
     <row r="25">
@@ -771,16 +771,16 @@
         <v>2014</v>
       </c>
       <c r="B25" t="n">
-        <v>-421677579356073536</v>
+        <v>-401289229841510400</v>
       </c>
       <c r="C25" t="n">
-        <v>-174716023712004</v>
+        <v>-166414578469918</v>
       </c>
       <c r="D25" t="n">
-        <v>103406053643646515806208</v>
+        <v>98551684711607682727936</v>
       </c>
       <c r="E25" t="n">
-        <v>10000621694125864960</v>
+        <v>9515184800921980928</v>
       </c>
     </row>
     <row r="26">
@@ -788,16 +788,16 @@
         <v>2015</v>
       </c>
       <c r="B26" t="n">
-        <v>-421677736981753216</v>
+        <v>-400706863195345408</v>
       </c>
       <c r="C26" t="n">
-        <v>-174710770462425</v>
+        <v>-166172141070565</v>
       </c>
       <c r="D26" t="n">
-        <v>103408511219587887398912</v>
+        <v>98415446032347945762816</v>
       </c>
       <c r="E26" t="n">
-        <v>10000621742000879616</v>
+        <v>9501315223276883968</v>
       </c>
     </row>
     <row r="27">
@@ -805,16 +805,16 @@
         <v>2016</v>
       </c>
       <c r="B27" t="n">
-        <v>-421677849834274240</v>
+        <v>-400124451776021760</v>
       </c>
       <c r="C27" t="n">
-        <v>-174702827495329</v>
+        <v>-165927013953695</v>
       </c>
       <c r="D27" t="n">
-        <v>103411159236334984364032</v>
+        <v>98279397793893934170112</v>
       </c>
       <c r="E27" t="n">
-        <v>10000621774712178688</v>
+        <v>9487445630468073472</v>
       </c>
     </row>
     <row r="28">
@@ -822,16 +822,16 @@
         <v>2017</v>
       </c>
       <c r="B28" t="n">
-        <v>-421677973489230912</v>
+        <v>-399542051159133952</v>
       </c>
       <c r="C28" t="n">
-        <v>-174692982555024</v>
+        <v>-165679984863616</v>
       </c>
       <c r="D28" t="n">
-        <v>103413743587797248245760</v>
+        <v>98143285890155106271232</v>
       </c>
       <c r="E28" t="n">
-        <v>10000621805805127680</v>
+        <v>9473576036040912896</v>
       </c>
     </row>
   </sheetData>
